--- a/Schedule/FrontEnd-Developer.xlsx
+++ b/Schedule/FrontEnd-Developer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WISDOM-WEBSITE\PijamaWisdom\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCE643D-B305-4642-B451-A05DA95F15D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50446EF7-91F8-4E38-B8E4-410FD12C457F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -82,6 +82,63 @@
   </si>
   <si>
     <t>Discription</t>
+  </si>
+  <si>
+    <t>0.5d</t>
+  </si>
+  <si>
+    <t>Product List</t>
+  </si>
+  <si>
+    <t>Product Details</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>List Product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Details (Image, name, number, button -/+, button add to cart, favorite </t>
+  </si>
+  <si>
+    <t>Voting/Review</t>
+  </si>
+  <si>
+    <t>List similar product</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>edit order</t>
+  </si>
+  <si>
+    <t>List product in cart</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>List order</t>
   </si>
 </sst>
 </file>
@@ -97,15 +154,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -128,11 +191,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -146,7 +246,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,15 +547,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="64.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" style="1" customWidth="1"/>
@@ -449,62 +564,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
@@ -515,8 +634,8 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
@@ -527,8 +646,8 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="4"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -537,8 +656,8 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="4"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -547,8 +666,8 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -557,8 +676,8 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -567,8 +686,8 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -577,8 +696,8 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -587,8 +706,8 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="4"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -597,8 +716,8 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="4"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -607,8 +726,8 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="4"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -617,8 +736,8 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -631,8 +750,8 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
@@ -643,8 +762,8 @@
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="4" t="s">
         <v>11</v>
       </c>
@@ -655,8 +774,8 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="4" t="s">
         <v>12</v>
       </c>
@@ -667,8 +786,8 @@
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="4"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -677,8 +796,8 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="4"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -687,8 +806,8 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="4"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -697,8 +816,8 @@
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="4"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -707,8 +826,8 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="4"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -717,8 +836,8 @@
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="4"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -727,8 +846,8 @@
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="4"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -737,8 +856,8 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="4"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -747,9 +866,13 @@
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -757,9 +880,11 @@
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -767,9 +892,11 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -777,8 +904,8 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="4"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -787,8 +914,8 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="4"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -797,8 +924,8 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="4"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -807,8 +934,8 @@
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="3"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="4"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -817,8 +944,8 @@
       <c r="H34" s="3"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="4"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -827,9 +954,13 @@
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -837,9 +968,11 @@
       <c r="H36" s="3"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -847,9 +980,11 @@
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -857,8 +992,8 @@
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="4"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -867,8 +1002,8 @@
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="4"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -877,8 +1012,8 @@
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="3"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="4"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -887,8 +1022,8 @@
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="4"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -897,9 +1032,13 @@
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -907,8 +1046,8 @@
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="4"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -917,8 +1056,8 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="3"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="4"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -927,8 +1066,8 @@
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="3"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="4"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -937,8 +1076,8 @@
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="3"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="4"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -947,8 +1086,8 @@
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="3"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="4"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -957,9 +1096,13 @@
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -967,9 +1110,11 @@
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -977,8 +1122,8 @@
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="3"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="4"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -987,9 +1132,11 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
+      <c r="A52" s="7"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -997,9 +1144,13 @@
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -1007,9 +1158,11 @@
       <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -1017,9 +1170,11 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -1027,9 +1182,11 @@
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -1037,7 +1194,7 @@
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
+      <c r="A57" s="7"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
       <c r="D57" s="3"/>
@@ -1047,7 +1204,7 @@
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
+      <c r="A58" s="7"/>
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
       <c r="D58" s="3"/>
@@ -1057,7 +1214,7 @@
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
+      <c r="A59" s="7"/>
       <c r="B59" s="3"/>
       <c r="C59" s="4"/>
       <c r="D59" s="3"/>
@@ -1067,7 +1224,7 @@
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
+      <c r="A60" s="7"/>
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
       <c r="D60" s="3"/>
@@ -1077,7 +1234,7 @@
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
+      <c r="A61" s="7"/>
       <c r="B61" s="3"/>
       <c r="C61" s="4"/>
       <c r="D61" s="3"/>
@@ -1087,7 +1244,7 @@
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
+      <c r="A62" s="7"/>
       <c r="B62" s="3"/>
       <c r="C62" s="4"/>
       <c r="D62" s="3"/>
@@ -1097,7 +1254,7 @@
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
+      <c r="A63" s="7"/>
       <c r="B63" s="3"/>
       <c r="C63" s="4"/>
       <c r="D63" s="3"/>
@@ -1107,7 +1264,7 @@
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
+      <c r="A64" s="7"/>
       <c r="B64" s="3"/>
       <c r="C64" s="4"/>
       <c r="D64" s="3"/>
@@ -1117,7 +1274,7 @@
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
+      <c r="A65" s="7"/>
       <c r="B65" s="3"/>
       <c r="C65" s="4"/>
       <c r="D65" s="3"/>
@@ -1127,7 +1284,7 @@
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
+      <c r="A66" s="7"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
       <c r="D66" s="3"/>
@@ -1137,7 +1294,7 @@
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
+      <c r="A67" s="7"/>
       <c r="B67" s="3"/>
       <c r="C67" s="4"/>
       <c r="D67" s="3"/>
@@ -1147,7 +1304,7 @@
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="5"/>
+      <c r="A68" s="7"/>
       <c r="B68" s="3"/>
       <c r="C68" s="4"/>
       <c r="D68" s="3"/>
@@ -1157,7 +1314,7 @@
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
+      <c r="A69" s="7"/>
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
       <c r="D69" s="3"/>
@@ -1167,7 +1324,7 @@
       <c r="H69" s="3"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
+      <c r="A70" s="7"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
       <c r="D70" s="3"/>
@@ -1177,7 +1334,7 @@
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
+      <c r="A71" s="7"/>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
       <c r="D71" s="3"/>
@@ -1187,7 +1344,7 @@
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
+      <c r="A72" s="7"/>
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
       <c r="D72" s="3"/>
@@ -1197,7 +1354,7 @@
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
+      <c r="A73" s="7"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
       <c r="D73" s="3"/>
@@ -1207,7 +1364,7 @@
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
+      <c r="A74" s="7"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
       <c r="D74" s="3"/>
@@ -1217,7 +1374,7 @@
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
+      <c r="A75" s="7"/>
       <c r="B75" s="3"/>
       <c r="C75" s="4"/>
       <c r="D75" s="3"/>
@@ -1227,7 +1384,7 @@
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
+      <c r="A76" s="7"/>
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
       <c r="D76" s="3"/>
@@ -1237,7 +1394,7 @@
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
+      <c r="A77" s="7"/>
       <c r="B77" s="3"/>
       <c r="C77" s="4"/>
       <c r="D77" s="3"/>
@@ -1247,7 +1404,7 @@
       <c r="H77" s="3"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
+      <c r="A78" s="7"/>
       <c r="B78" s="3"/>
       <c r="C78" s="4"/>
       <c r="D78" s="3"/>
@@ -1257,7 +1414,7 @@
       <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
+      <c r="A79" s="7"/>
       <c r="B79" s="3"/>
       <c r="C79" s="4"/>
       <c r="D79" s="3"/>
@@ -1267,7 +1424,7 @@
       <c r="H79" s="3"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
+      <c r="A80" s="7"/>
       <c r="B80" s="3"/>
       <c r="C80" s="4"/>
       <c r="D80" s="3"/>
@@ -1277,7 +1434,7 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
+      <c r="A81" s="7"/>
       <c r="B81" s="3"/>
       <c r="C81" s="4"/>
       <c r="D81" s="3"/>
@@ -1287,7 +1444,7 @@
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
+      <c r="A82" s="7"/>
       <c r="B82" s="3"/>
       <c r="C82" s="4"/>
       <c r="D82" s="3"/>
@@ -1297,7 +1454,7 @@
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
+      <c r="A83" s="7"/>
       <c r="B83" s="3"/>
       <c r="C83" s="4"/>
       <c r="D83" s="3"/>
@@ -1307,7 +1464,7 @@
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
+      <c r="A84" s="7"/>
       <c r="B84" s="3"/>
       <c r="C84" s="4"/>
       <c r="D84" s="3"/>
@@ -1317,7 +1474,7 @@
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
+      <c r="A85" s="7"/>
       <c r="B85" s="3"/>
       <c r="C85" s="4"/>
       <c r="D85" s="3"/>
@@ -1327,7 +1484,7 @@
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="5"/>
+      <c r="A86" s="7"/>
       <c r="B86" s="3"/>
       <c r="C86" s="4"/>
       <c r="D86" s="3"/>
@@ -1337,7 +1494,7 @@
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="5"/>
+      <c r="A87" s="7"/>
       <c r="B87" s="3"/>
       <c r="C87" s="4"/>
       <c r="D87" s="3"/>
@@ -1347,7 +1504,7 @@
       <c r="H87" s="3"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
+      <c r="A88" s="7"/>
       <c r="B88" s="3"/>
       <c r="C88" s="4"/>
       <c r="D88" s="3"/>
@@ -1357,7 +1514,7 @@
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
+      <c r="A89" s="7"/>
       <c r="B89" s="3"/>
       <c r="C89" s="4"/>
       <c r="D89" s="3"/>
@@ -1367,7 +1524,7 @@
       <c r="H89" s="3"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="5"/>
+      <c r="A90" s="7"/>
       <c r="B90" s="3"/>
       <c r="C90" s="4"/>
       <c r="D90" s="3"/>
@@ -1377,7 +1534,7 @@
       <c r="H90" s="3"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="5"/>
+      <c r="A91" s="7"/>
       <c r="B91" s="3"/>
       <c r="C91" s="4"/>
       <c r="D91" s="3"/>
@@ -1387,7 +1544,7 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
+      <c r="A92" s="7"/>
       <c r="B92" s="3"/>
       <c r="C92" s="4"/>
       <c r="D92" s="3"/>
@@ -1397,7 +1554,7 @@
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="5"/>
+      <c r="A93" s="7"/>
       <c r="B93" s="3"/>
       <c r="C93" s="4"/>
       <c r="D93" s="3"/>
@@ -1407,7 +1564,7 @@
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="5"/>
+      <c r="A94" s="7"/>
       <c r="B94" s="3"/>
       <c r="C94" s="4"/>
       <c r="D94" s="3"/>
@@ -1417,7 +1574,7 @@
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
+      <c r="A95" s="7"/>
       <c r="B95" s="3"/>
       <c r="C95" s="4"/>
       <c r="D95" s="3"/>
@@ -1427,7 +1584,7 @@
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="5"/>
+      <c r="A96" s="7"/>
       <c r="B96" s="3"/>
       <c r="C96" s="4"/>
       <c r="D96" s="3"/>
@@ -1437,7 +1594,7 @@
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="5"/>
+      <c r="A97" s="7"/>
       <c r="B97" s="3"/>
       <c r="C97" s="4"/>
       <c r="D97" s="3"/>
@@ -1447,7 +1604,7 @@
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
+      <c r="A98" s="7"/>
       <c r="B98" s="3"/>
       <c r="C98" s="4"/>
       <c r="D98" s="3"/>
@@ -1457,7 +1614,7 @@
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="5"/>
+      <c r="A99" s="7"/>
       <c r="B99" s="3"/>
       <c r="C99" s="4"/>
       <c r="D99" s="3"/>
@@ -1467,7 +1624,7 @@
       <c r="H99" s="3"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="5"/>
+      <c r="A100" s="7"/>
       <c r="B100" s="3"/>
       <c r="C100" s="4"/>
       <c r="D100" s="3"/>
@@ -1477,10 +1634,15 @@
       <c r="H100" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
     <mergeCell ref="A3:A100"/>
     <mergeCell ref="B3:B15"/>
     <mergeCell ref="B16:B27"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Schedule/FrontEnd-Developer.xlsx
+++ b/Schedule/FrontEnd-Developer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WISDOM-WEBSITE\PijamaWisdom\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50446EF7-91F8-4E38-B8E4-410FD12C457F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B0635C-D50D-479A-928B-3B89EBA41A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>List order</t>
+  </si>
+  <si>
+    <t>Process</t>
   </si>
 </sst>
 </file>
@@ -545,10 +548,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:H100"/>
+  <dimension ref="A2:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,12 +561,12 @@
     <col min="3" max="3" width="64.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="8" width="18.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -586,10 +589,13 @@
         <v>17</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -606,8 +612,9 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="4" t="s">
@@ -620,8 +627,9 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="4" t="s">
@@ -632,8 +640,9 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="4" t="s">
@@ -644,8 +653,9 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="4"/>
@@ -654,8 +664,9 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="4"/>
@@ -664,8 +675,9 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="4"/>
@@ -674,8 +686,9 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="4"/>
@@ -684,8 +697,9 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="4"/>
@@ -694,8 +708,9 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="4"/>
@@ -704,8 +719,9 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="4"/>
@@ -714,8 +730,9 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="4"/>
@@ -724,8 +741,9 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="4"/>
@@ -734,8 +752,9 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7" t="s">
         <v>7</v>
@@ -748,8 +767,9 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="4" t="s">
@@ -760,8 +780,9 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="4" t="s">
@@ -772,8 +793,9 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="4" t="s">
@@ -784,8 +806,9 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="4"/>
@@ -794,8 +817,9 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="4"/>
@@ -804,8 +828,9 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="4"/>
@@ -814,8 +839,9 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="4"/>
@@ -824,8 +850,9 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="4"/>
@@ -834,8 +861,9 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="4"/>
@@ -844,8 +872,9 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="4"/>
@@ -854,8 +883,9 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="4"/>
@@ -864,8 +894,9 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
       <c r="B28" s="8" t="s">
         <v>20</v>
@@ -878,8 +909,9 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="9"/>
       <c r="C29" s="4" t="s">
@@ -890,8 +922,9 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="9"/>
       <c r="C30" s="4" t="s">
@@ -902,8 +935,9 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
       <c r="C31" s="4"/>
@@ -912,8 +946,9 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="9"/>
       <c r="C32" s="4"/>
@@ -922,8 +957,9 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="9"/>
       <c r="C33" s="4"/>
@@ -932,8 +968,9 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="9"/>
       <c r="C34" s="4"/>
@@ -942,8 +979,9 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="10"/>
       <c r="C35" s="4"/>
@@ -952,8 +990,9 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="8" t="s">
         <v>21</v>
@@ -966,8 +1005,9 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
       <c r="B37" s="9"/>
       <c r="C37" s="4" t="s">
@@ -978,8 +1018,9 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
       <c r="B38" s="9"/>
       <c r="C38" s="4" t="s">
@@ -990,8 +1031,9 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
       <c r="B39" s="9"/>
       <c r="C39" s="4"/>
@@ -1000,8 +1042,9 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
       <c r="B40" s="9"/>
       <c r="C40" s="4"/>
@@ -1010,8 +1053,9 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="9"/>
       <c r="C41" s="4"/>
@@ -1020,8 +1064,9 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="10"/>
       <c r="C42" s="4"/>
@@ -1030,8 +1075,9 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="8" t="s">
         <v>28</v>
@@ -1044,8 +1090,9 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
       <c r="B44" s="9"/>
       <c r="C44" s="4"/>
@@ -1054,8 +1101,9 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="9"/>
       <c r="C45" s="4"/>
@@ -1064,8 +1112,9 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="9"/>
       <c r="C46" s="4"/>
@@ -1074,8 +1123,9 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="9"/>
       <c r="C47" s="4"/>
@@ -1084,8 +1134,9 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="3"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="10"/>
       <c r="C48" s="4"/>
@@ -1094,8 +1145,9 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
       <c r="B49" s="8" t="s">
         <v>12</v>
@@ -1108,8 +1160,9 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="9"/>
       <c r="C50" s="4" t="s">
@@ -1120,8 +1173,9 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="B51" s="9"/>
       <c r="C51" s="4"/>
@@ -1130,8 +1184,9 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="10"/>
       <c r="C52" s="4" t="s">
@@ -1142,8 +1197,9 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="B53" s="8" t="s">
         <v>33</v>
@@ -1156,8 +1212,9 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="B54" s="9"/>
       <c r="C54" s="4" t="s">
@@ -1168,8 +1225,9 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="B55" s="9"/>
       <c r="C55" s="4" t="s">
@@ -1180,8 +1238,9 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7"/>
       <c r="B56" s="10"/>
       <c r="C56" s="4" t="s">
@@ -1192,8 +1251,9 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="3"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
@@ -1202,8 +1262,9 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7"/>
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
@@ -1212,8 +1273,9 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="3"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
       <c r="B59" s="3"/>
       <c r="C59" s="4"/>
@@ -1222,8 +1284,9 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="3"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7"/>
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
@@ -1232,8 +1295,9 @@
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="3"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
       <c r="B61" s="3"/>
       <c r="C61" s="4"/>
@@ -1242,8 +1306,9 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
       <c r="B62" s="3"/>
       <c r="C62" s="4"/>
@@ -1252,8 +1317,9 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="3"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="7"/>
       <c r="B63" s="3"/>
       <c r="C63" s="4"/>
@@ -1262,8 +1328,9 @@
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="3"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7"/>
       <c r="B64" s="3"/>
       <c r="C64" s="4"/>
@@ -1272,8 +1339,9 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="7"/>
       <c r="B65" s="3"/>
       <c r="C65" s="4"/>
@@ -1282,8 +1350,9 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="3"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
@@ -1292,8 +1361,9 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="7"/>
       <c r="B67" s="3"/>
       <c r="C67" s="4"/>
@@ -1302,8 +1372,9 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="3"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
       <c r="B68" s="3"/>
       <c r="C68" s="4"/>
@@ -1312,8 +1383,9 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="3"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
@@ -1322,8 +1394,9 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="3"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="7"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
@@ -1332,8 +1405,9 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="3"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
@@ -1342,8 +1416,9 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="3"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="7"/>
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
@@ -1352,8 +1427,9 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="3"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="7"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
@@ -1362,8 +1438,9 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
@@ -1372,8 +1449,9 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="3"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="7"/>
       <c r="B75" s="3"/>
       <c r="C75" s="4"/>
@@ -1382,8 +1460,9 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="3"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="7"/>
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
@@ -1392,8 +1471,9 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="3"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="7"/>
       <c r="B77" s="3"/>
       <c r="C77" s="4"/>
@@ -1402,8 +1482,9 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="7"/>
       <c r="B78" s="3"/>
       <c r="C78" s="4"/>
@@ -1412,8 +1493,9 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="7"/>
       <c r="B79" s="3"/>
       <c r="C79" s="4"/>
@@ -1422,8 +1504,9 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="7"/>
       <c r="B80" s="3"/>
       <c r="C80" s="4"/>
@@ -1432,8 +1515,9 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
       <c r="B81" s="3"/>
       <c r="C81" s="4"/>
@@ -1442,8 +1526,9 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
       <c r="B82" s="3"/>
       <c r="C82" s="4"/>
@@ -1452,8 +1537,9 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
       <c r="B83" s="3"/>
       <c r="C83" s="4"/>
@@ -1462,8 +1548,9 @@
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="7"/>
       <c r="B84" s="3"/>
       <c r="C84" s="4"/>
@@ -1472,8 +1559,9 @@
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="7"/>
       <c r="B85" s="3"/>
       <c r="C85" s="4"/>
@@ -1482,8 +1570,9 @@
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
       <c r="B86" s="3"/>
       <c r="C86" s="4"/>
@@ -1492,8 +1581,9 @@
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="7"/>
       <c r="B87" s="3"/>
       <c r="C87" s="4"/>
@@ -1502,8 +1592,9 @@
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="3"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="7"/>
       <c r="B88" s="3"/>
       <c r="C88" s="4"/>
@@ -1512,8 +1603,9 @@
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="7"/>
       <c r="B89" s="3"/>
       <c r="C89" s="4"/>
@@ -1522,8 +1614,9 @@
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="7"/>
       <c r="B90" s="3"/>
       <c r="C90" s="4"/>
@@ -1532,8 +1625,9 @@
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="3"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="7"/>
       <c r="B91" s="3"/>
       <c r="C91" s="4"/>
@@ -1542,8 +1636,9 @@
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="3"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="7"/>
       <c r="B92" s="3"/>
       <c r="C92" s="4"/>
@@ -1552,8 +1647,9 @@
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="3"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="7"/>
       <c r="B93" s="3"/>
       <c r="C93" s="4"/>
@@ -1562,8 +1658,9 @@
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="3"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
       <c r="B94" s="3"/>
       <c r="C94" s="4"/>
@@ -1572,8 +1669,9 @@
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="3"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="7"/>
       <c r="B95" s="3"/>
       <c r="C95" s="4"/>
@@ -1582,8 +1680,9 @@
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="3"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="7"/>
       <c r="B96" s="3"/>
       <c r="C96" s="4"/>
@@ -1592,8 +1691,9 @@
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" s="3"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="7"/>
       <c r="B97" s="3"/>
       <c r="C97" s="4"/>
@@ -1602,8 +1702,9 @@
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" s="3"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="7"/>
       <c r="B98" s="3"/>
       <c r="C98" s="4"/>
@@ -1612,8 +1713,9 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" s="3"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="7"/>
       <c r="B99" s="3"/>
       <c r="C99" s="4"/>
@@ -1622,8 +1724,9 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" s="3"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="7"/>
       <c r="B100" s="3"/>
       <c r="C100" s="4"/>
@@ -1632,6 +1735,7 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Schedule/FrontEnd-Developer.xlsx
+++ b/Schedule/FrontEnd-Developer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WISDOM-WEBSITE\PijamaWisdom\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE0B52A-AD00-4E5A-92D9-30F35D093A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB059819-CE1F-44A6-94DF-A235116B2280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Trang Hưng</t>
+  </si>
+  <si>
+    <t>Hoàng Long</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -297,15 +306,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,7 +321,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,7 +620,7 @@
   <dimension ref="A2:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,10 +665,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -667,15 +679,15 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
@@ -684,15 +696,15 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
@@ -701,15 +713,15 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
@@ -718,114 +730,114 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>40</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="4"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="4"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="4"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="4"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="4"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="4"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -836,15 +848,15 @@
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="16" t="s">
         <v>39</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
@@ -853,15 +865,15 @@
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="16" t="s">
         <v>39</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="4" t="s">
         <v>11</v>
       </c>
@@ -870,15 +882,15 @@
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="9" t="s">
         <v>42</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="4" t="s">
         <v>12</v>
       </c>
@@ -887,203 +899,213 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="4"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="4"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="4"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="4"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="15"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="4"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="4"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="4"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="15"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="4"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="15"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="3">
+        <v>0.5</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="G29" s="15"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3">
+        <v>1.5</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="G30" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="4"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="G31" s="15"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="4"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="G32" s="15"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="4"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="G33" s="15"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="4"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="G34" s="15"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="4"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="G35" s="15"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3">
+        <v>2</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="15"/>
@@ -1091,78 +1113,82 @@
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="G37" s="15"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3">
+        <v>0.5</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="G38" s="15"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="4"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="4"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+      <c r="G40" s="15"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="4"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+      <c r="G41" s="15"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="4"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="G42" s="15"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="7" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -1171,68 +1197,68 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
+      <c r="G43" s="15"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="4"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="G44" s="15"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="4"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+      <c r="G45" s="15"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="4"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="G46" s="15"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="4"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="15"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="4"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="G48" s="15"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="7" t="s">
+      <c r="A49" s="13"/>
+      <c r="B49" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -1241,50 +1267,50 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="G49" s="15"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="8"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="G50" s="15"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="4"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="G51" s="15"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="G52" s="15"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="7" t="s">
+      <c r="A53" s="13"/>
+      <c r="B53" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -1293,530 +1319,530 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="G53" s="15"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="G54" s="15"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
       <c r="C55" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+      <c r="G55" s="15"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="G56" s="15"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="G57" s="15"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
+      <c r="A58" s="13"/>
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="G58" s="15"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="3"/>
       <c r="C59" s="4"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="G59" s="15"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+      <c r="G60" s="15"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
+      <c r="A61" s="13"/>
       <c r="B61" s="3"/>
       <c r="C61" s="4"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+      <c r="G61" s="15"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="3"/>
       <c r="C62" s="4"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="G62" s="15"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="3"/>
       <c r="C63" s="4"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
+      <c r="G63" s="15"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="3"/>
       <c r="C64" s="4"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+      <c r="G64" s="15"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="3"/>
       <c r="C65" s="4"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
+      <c r="G65" s="15"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
+      <c r="A66" s="13"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+      <c r="G66" s="15"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
+      <c r="A67" s="13"/>
       <c r="B67" s="3"/>
       <c r="C67" s="4"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
+      <c r="G67" s="15"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="3"/>
       <c r="C68" s="4"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
+      <c r="G68" s="15"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
+      <c r="A69" s="13"/>
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
+      <c r="G69" s="15"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
+      <c r="A70" s="13"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
+      <c r="G70" s="15"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
+      <c r="A71" s="13"/>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
+      <c r="G71" s="15"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
+      <c r="A72" s="13"/>
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
+      <c r="G72" s="15"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
+      <c r="A73" s="13"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
+      <c r="G73" s="15"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
+      <c r="A74" s="13"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
+      <c r="G74" s="15"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
+      <c r="A75" s="13"/>
       <c r="B75" s="3"/>
       <c r="C75" s="4"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
+      <c r="G75" s="15"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="8"/>
+      <c r="A76" s="13"/>
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
+      <c r="G76" s="15"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="3"/>
       <c r="C77" s="4"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
+      <c r="G77" s="15"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="3"/>
       <c r="C78" s="4"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
+      <c r="G78" s="15"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
+      <c r="A79" s="13"/>
       <c r="B79" s="3"/>
       <c r="C79" s="4"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
+      <c r="G79" s="15"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="3"/>
       <c r="C80" s="4"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
+      <c r="G80" s="15"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="3"/>
       <c r="C81" s="4"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
+      <c r="G81" s="15"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
+      <c r="A82" s="13"/>
       <c r="B82" s="3"/>
       <c r="C82" s="4"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
+      <c r="G82" s="15"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="3"/>
       <c r="C83" s="4"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
+      <c r="G83" s="15"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="8"/>
+      <c r="A84" s="13"/>
       <c r="B84" s="3"/>
       <c r="C84" s="4"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
+      <c r="G84" s="15"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
+      <c r="A85" s="13"/>
       <c r="B85" s="3"/>
       <c r="C85" s="4"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
+      <c r="G85" s="15"/>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
+      <c r="A86" s="13"/>
       <c r="B86" s="3"/>
       <c r="C86" s="4"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
+      <c r="G86" s="15"/>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="3"/>
       <c r="C87" s="4"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
+      <c r="G87" s="15"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
+      <c r="A88" s="13"/>
       <c r="B88" s="3"/>
       <c r="C88" s="4"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
+      <c r="G88" s="15"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
+      <c r="A89" s="13"/>
       <c r="B89" s="3"/>
       <c r="C89" s="4"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
+      <c r="G89" s="15"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="3"/>
       <c r="C90" s="4"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
+      <c r="G90" s="15"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
+      <c r="A91" s="13"/>
       <c r="B91" s="3"/>
       <c r="C91" s="4"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
+      <c r="G91" s="15"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
+      <c r="A92" s="13"/>
       <c r="B92" s="3"/>
       <c r="C92" s="4"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
+      <c r="G92" s="15"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="8"/>
+      <c r="A93" s="13"/>
       <c r="B93" s="3"/>
       <c r="C93" s="4"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
+      <c r="G93" s="15"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
+      <c r="A94" s="13"/>
       <c r="B94" s="3"/>
       <c r="C94" s="4"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
+      <c r="G94" s="15"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
+      <c r="A95" s="13"/>
       <c r="B95" s="3"/>
       <c r="C95" s="4"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
+      <c r="G95" s="15"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
+      <c r="A96" s="13"/>
       <c r="B96" s="3"/>
       <c r="C96" s="4"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
+      <c r="G96" s="15"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="8"/>
+      <c r="A97" s="13"/>
       <c r="B97" s="3"/>
       <c r="C97" s="4"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
+      <c r="G97" s="15"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
+      <c r="A98" s="13"/>
       <c r="B98" s="3"/>
       <c r="C98" s="4"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
+      <c r="G98" s="15"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
+      <c r="A99" s="13"/>
       <c r="B99" s="3"/>
       <c r="C99" s="4"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
+      <c r="G99" s="15"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
+      <c r="A100" s="14"/>
       <c r="B100" s="3"/>
       <c r="C100" s="4"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
+      <c r="G100" s="15"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
     </row>
@@ -1831,12 +1857,15 @@
     <mergeCell ref="B49:B52"/>
     <mergeCell ref="B53:B56"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G101:G122" xr:uid="{1AE2E63F-FDF5-4187-9004-1150D21BF713}">
       <formula1>"a"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G100" xr:uid="{A8B396D8-2A14-480D-B813-57B0EAFD22BC}">
-      <formula1>"Gia Kính, Hiếu Cao, Minh Sơn, Hữu Sĩ, Trang Hưng"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G100" xr:uid="{A8B396D8-2A14-480D-B813-57B0EAFD22BC}">
+      <formula1>"Gia Kính, Hiếu Cao, Minh Sơn, Hữu Sĩ, Trang Hưng, Hoàng Long"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G4 G5" xr:uid="{4D9AF773-8AC5-4E5D-B672-CCFE56E85D52}">
+      <formula1>"Gia Kính, Hiếu Cao, Minh Sơn, Hữu Sĩ, Trang Hưng, Hoàng Long"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
